--- a/data/201_600_input.xlsx
+++ b/data/201_600_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/NLP/NLP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A401311-2832-834E-9813-2AB69432F576}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA15F643-1F11-964D-8B57-6062BDE6368F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C06B9E76-F82F-1F4B-A099-5C18B5DBFF13}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{C06B9E76-F82F-1F4B-A099-5C18B5DBFF13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="319">
   <si>
     <t xml:space="preserve">Another fake hate crime Lesbians burn their own house down. What else Is new :http://t.co/66oBQmxImb </t>
   </si>
@@ -339,9 +339,6 @@
     <t xml:space="preserve">USATODAY: On today's #frontpage: #Bioterror lab faced secret sanctions. #RickPerry doesn't make the cut for FoxNew‰Û_ http://t.co/5uKOHk7SoB </t>
   </si>
   <si>
-    <t xml:space="preserve">USATODAY: On today's #frontpage: #Bioterror lab faced secret sanctions. #RickPerry doesn't make the cut for FoxNew‰Û_ http://t.co/xFHh2XF9Ga </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bioterrorism and Ebola. http://t.co/ORIOVftLK4 RT #STOPIslam #TCOT #CCOT #MakeDCListen #TeaParty </t>
   </si>
   <si>
@@ -417,12 +414,6 @@
     <t xml:space="preserve">@HowardU If 90BLKs&amp;amp;8WHTs colluded 2 take WHT F @USAgov AUTH Hostage&amp;amp;2 make her look BLK w/Bioterrorism&amp;amp;use her lgl/org IDis ID still hers? </t>
   </si>
   <si>
-    <t xml:space="preserve">@GACourts If 90BLKs&amp;amp;8WHTs colluded 2 take WHT F @USAgov AUTH Hostage&amp;amp;2 make her look BLK w/Bioterrorism&amp;amp;use her lgl/org IDis ID still hers? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@cspanwj If 90BLKs&amp;amp;8WHTs colluded 2 take WHT F @USAgov AUTH Hostage&amp;amp;2 make her look BLK w/Bioterrorism&amp;amp;use her lgl/org IDis ID still hers? </t>
-  </si>
-  <si>
     <t xml:space="preserve">The #IranDeal only covers nuclear activity. What are they doing about Bioterrorism? Iran has broken at least 27 other agreements. </t>
   </si>
   <si>
@@ -441,9 +432,6 @@
     <t xml:space="preserve">Love living on my own. I can blaze inside my apt or on the balcony </t>
   </si>
   <si>
-    <t xml:space="preserve">Property losses from California wildfire nearly double as week-old blaze rages http://t.co/E0UUsnpsq5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">#breaking Firefighters battling blaze at east Cary condo building http://t.co/mIM8hH2ce6 </t>
   </si>
   <si>
@@ -765,9 +753,6 @@
     <t xml:space="preserve">#SitCTips if you do vlog you WILL get video-bombed. </t>
   </si>
   <si>
-    <t xml:space="preserve">Today Japan marks 70 yrs since the U.S (A) bombed 2 cities killing over 120000 people But we have to worry about Iran http://t.co/FcIXk23XQH </t>
-  </si>
-  <si>
     <t xml:space="preserve">She didn't even notice me in the background I'm a floatin head #bombed http://t.co/JA0WGp8sPe </t>
   </si>
   <si>
@@ -795,12 +780,6 @@
     <t xml:space="preserve">Japan on Thursday marks the 70th anniversary of the atomic bombing of Hiroshima with the most senior official from Washington ever schedule‰Û_ </t>
   </si>
   <si>
-    <t xml:space="preserve">#Hiroshima marks 70th anniversary of atomic bombing ( via NHK WORLD News) http://t.co/qGWoyNJLY8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today marks the 70th anniversary of the bombing of Hiroshima a city I visited and was humbled by in November 2013 http://t.co/AcC1z5Q9Zw </t>
-  </si>
-  <si>
     <t xml:space="preserve">@moscow_ghost @sayed_ridha @Amin_Akh congratulations on capturing a besieged city after 3 months of indiscriminate bombing by land &amp;amp; air </t>
   </si>
   <si>
@@ -828,9 +807,6 @@
     <t xml:space="preserve">The cryptic words that guided pilots on the Hiroshima bombing mission http://t.co/39IAbcC5pK </t>
   </si>
   <si>
-    <t xml:space="preserve">70th Anniversary of Hiroshima bombing https://t.co/juwvomhGPd </t>
-  </si>
-  <si>
     <t xml:space="preserve">@rinkydnk2 @ZaibatsuNews @NeoProgressive1 When push2Left talk='ecology'&amp;amp;'human rts'&amp;amp;'democracy'. War Afghetc='Left' humanitarian bombing </t>
   </si>
   <si>
@@ -840,9 +816,6 @@
     <t xml:space="preserve">@snapharmony : Bells toll in Hiroshima as Japan marks 70 years since atomic bombing http://t.co/yPvvqZ8jzt </t>
   </si>
   <si>
-    <t xml:space="preserve">Japan marks 70th anniversary of Hiroshima atomic bombing http://t.co/a2SS7pr4gW </t>
-  </si>
-  <si>
     <t xml:space="preserve">The 'sanitised narrative' of Hiroshima's atomic bombing. #Hiroshima70 #japan http://t.co/zsyj6sqYCn </t>
   </si>
   <si>
@@ -855,9 +828,6 @@
     <t xml:space="preserve">70 yrs since the atomic bombing of Hiroshima... Terrible mass murder... </t>
   </si>
   <si>
-    <t xml:space="preserve">Japan marks 70th anniversary of Hiroshima atomic bombing: Bells tolled in Hiroshima on Thursday as Japan marked 70‰Û_ http://t.co/NBZiKcJpHp </t>
-  </si>
-  <si>
     <t xml:space="preserve">@ameenshaikh3 by ur. logic if bridge didnt collapse then second train engine should cross bridge then  @sanjaynirupam @sureshprabhu </t>
   </si>
   <si>
@@ -921,18 +891,12 @@
     <t xml:space="preserve">#computers #gadgets Two giant cranes holding a bridge collapse into nearby homes http://t.co/UZIWgZRynY #slingnews </t>
   </si>
   <si>
-    <t xml:space="preserve">Australia's Ashes disaster - how the collapse unfolded at Trent Bridge - Telegraph http://t.co/6FYnerMUsG </t>
-  </si>
-  <si>
     <t xml:space="preserve">@followlasg This is urgentthere is currently a 3 storey building at church B/stop Oworoshoki Third mainland bridge which likely to collapse </t>
   </si>
   <si>
     <t xml:space="preserve">Australia collapse at Trent Bridge how Twitter . On the first morning of the fourth Ashes Test... http://t.co/WAtjhzULa8 </t>
   </si>
   <si>
-    <t xml:space="preserve">Two giant cranes holding a bridge collapse into nearby homes http://t.co/lSQe7nu6kl </t>
-  </si>
-  <si>
     <t xml:space="preserve">Two giant cranes holding a bridge collapse into nearby homes http://t.co/q5q1x5Vcqk </t>
   </si>
   <si>
@@ -945,9 +909,6 @@
     <t xml:space="preserve">Mexico: construction of bridge collapse killsåÊone http://t.co/I2C00FcOwb http://t.co/jAAgcFaRTW </t>
   </si>
   <si>
-    <t xml:space="preserve">2 Injured 1 missing in bridge collapse in central Mexico http://t.co/scDa8eVwR6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Two cranes restoring a bridge in the central Dutch town of Alphen aan den Rijn collapse on to buildings with rescuers searching for </t>
   </si>
   <si>
@@ -1018,6 +979,9 @@
   </si>
   <si>
     <t>A????</t>
+  </si>
+  <si>
+    <t>A?????</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9A9C3A-C3DB-804A-97FD-D811E4AD577F}">
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1393,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1401,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1409,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1417,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1425,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1433,25 +1397,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1509,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1517,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1555,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1563,7 +1533,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1571,7 +1541,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1579,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1587,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1595,7 +1565,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1603,7 +1573,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1611,7 +1581,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1619,7 +1589,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1627,20 +1597,23 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1648,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1656,7 +1629,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1664,20 +1637,23 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1685,7 +1661,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1693,7 +1669,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1701,7 +1677,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1709,7 +1685,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1717,7 +1693,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1725,35 +1701,47 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1761,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1769,7 +1757,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1777,7 +1765,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1785,7 +1773,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1793,7 +1781,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1801,75 +1789,111 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1877,7 +1901,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1885,7 +1909,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1893,7 +1917,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1901,7 +1925,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1909,7 +1933,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1917,7 +1941,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1925,7 +1949,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1933,7 +1957,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1941,7 +1965,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1949,7 +1973,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1957,7 +1981,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1965,7 +1989,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1973,7 +1997,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1981,7 +2005,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1989,7 +2013,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1997,7 +2021,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -2005,7 +2029,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -2013,7 +2037,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -2021,7 +2045,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -2029,7 +2053,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -2037,7 +2061,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -2045,7 +2069,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -2053,7 +2077,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -2061,7 +2085,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -2069,7 +2093,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -2077,7 +2101,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -2085,7 +2109,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -2093,7 +2117,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2101,7 +2125,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -2109,7 +2133,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2117,1188 +2141,1285 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
+      <c r="B102" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
+      <c r="B103" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
+      <c r="B104" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
+      <c r="B105" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
+      <c r="B106" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
+      <c r="B107" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
+      <c r="B108" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
+      <c r="B109" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
+      <c r="B110" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
+      <c r="B111" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>181</v>
-      </c>
-      <c r="B184" t="s">
-        <v>329</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>182</v>
-      </c>
-      <c r="B185" t="s">
-        <v>329</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>307</v>
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>311</v>
-      </c>
-      <c r="B315" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>312</v>
-      </c>
-      <c r="B316" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>321</v>
-      </c>
-      <c r="B325" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>322</v>
-      </c>
-      <c r="B326" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>323</v>
-      </c>
-      <c r="B327" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/201_600_input.xlsx
+++ b/data/201_600_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/NLP/NLP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA15F643-1F11-964D-8B57-6062BDE6368F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3985A4-1E2B-C143-933C-4A137BD30F41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{C06B9E76-F82F-1F4B-A099-5C18B5DBFF13}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="319">
   <si>
     <t xml:space="preserve">Another fake hate crime Lesbians burn their own house down. What else Is new :http://t.co/66oBQmxImb </t>
   </si>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9A9C3A-C3DB-804A-97FD-D811E4AD577F}">
   <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2476,16 +2476,25 @@
       <c r="A142" t="s">
         <v>141</v>
       </c>
+      <c r="B142" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
+      <c r="B143" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
+      <c r="B144" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -2547,21 +2556,33 @@
       <c r="A152" t="s">
         <v>151</v>
       </c>
+      <c r="B152" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
+      <c r="B153" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
+      <c r="B154" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
+      <c r="B155" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -2575,76 +2596,121 @@
       <c r="A157" t="s">
         <v>156</v>
       </c>
+      <c r="B157" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
+      <c r="B158" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
+      <c r="B160" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
+      <c r="B161" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
+      <c r="B162" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
+      <c r="B163" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
+      <c r="B164" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
+      <c r="B165" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
+      <c r="B166" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
+      <c r="B167" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
+      <c r="B168" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
+      <c r="B169" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
+      <c r="B170" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
+      <c r="B171" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -2666,6 +2732,9 @@
       <c r="A174" t="s">
         <v>173</v>
       </c>
+      <c r="B174" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -2679,11 +2748,17 @@
       <c r="A176" t="s">
         <v>175</v>
       </c>
+      <c r="B176" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
+      <c r="B177" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -2705,11 +2780,17 @@
       <c r="A180" t="s">
         <v>179</v>
       </c>
+      <c r="B180" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
+      <c r="B181" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -2723,81 +2804,129 @@
       <c r="A183" t="s">
         <v>182</v>
       </c>
+      <c r="B183" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
+      <c r="B184" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
+      <c r="B185" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
+      <c r="B186" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
+      <c r="B187" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
+      <c r="B188" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
+      <c r="B189" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
+      <c r="B190" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
+      <c r="B191" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
+      <c r="B192" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
+      <c r="B193" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
+      <c r="B194" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
+      <c r="B195" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
+      <c r="B196" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
+      <c r="B197" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
+      <c r="B198" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
@@ -2810,6 +2939,9 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/201_600_input.xlsx
+++ b/data/201_600_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/NLP/NLP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3985A4-1E2B-C143-933C-4A137BD30F41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B3B173-C7AD-2642-A70D-FA6C7EF4BCF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{C06B9E76-F82F-1F4B-A099-5C18B5DBFF13}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="318">
   <si>
     <t xml:space="preserve">Another fake hate crime Lesbians burn their own house down. What else Is new :http://t.co/66oBQmxImb </t>
   </si>
@@ -978,10 +978,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>A????</t>
-  </si>
-  <si>
-    <t>A?????</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1333,7 @@
   <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1605,7 +1602,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2285,7 +2282,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2413,7 +2410,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2477,7 +2474,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2485,7 +2482,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2613,7 +2610,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -3467,7 +3464,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
